--- a/overmoyer2021.xlsx
+++ b/overmoyer2021.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Table1.Samples" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="bcbio_samples" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Table1.Samples'!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Table1.Samples'!$A$1:$I$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Table1.Samples'!$A$1:$F$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="121">
   <si>
     <t xml:space="preserve">samplename</t>
   </si>
@@ -44,6 +46,18 @@
     <t xml:space="preserve">Tumor_Percentage</t>
   </si>
   <si>
+    <t xml:space="preserve">fastq_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_of?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bionf_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">3154-2</t>
   </si>
   <si>
@@ -59,157 +73,322 @@
     <t xml:space="preserve">30-100</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_BOT_3154-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3169-2</t>
   </si>
   <si>
     <t xml:space="preserve">post</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_BOT_3169-2_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3190-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180323_BOT_3190-4_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3194-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180228_3194-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3188-2</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">1-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3190-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
+    <t xml:space="preserve">20180323_3188-2_SG5253</t>
   </si>
   <si>
     <t xml:space="preserve">3193-1</t>
   </si>
   <si>
-    <t xml:space="preserve">3194-3</t>
+    <t xml:space="preserve">20180323_3193-1_SG5253</t>
   </si>
   <si>
     <t xml:space="preserve">3220-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3220-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3234-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3234-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3291-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3291-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3292-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3292-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3370-1</t>
   </si>
   <si>
     <t xml:space="preserve">Negative</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_3370-1_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3373-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180323_3373-3_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low on reads</t>
+  </si>
+  <si>
     <t xml:space="preserve">3372-1</t>
   </si>
   <si>
-    <t xml:space="preserve">3373-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1</t>
+    <t xml:space="preserve">20180228_3372-1_SG5253</t>
   </si>
   <si>
     <t xml:space="preserve">3374-2</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3374-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3404-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_3404-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3424-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3424-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3474-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3474-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3477-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_3477-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3563-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3563-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3582-4</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3582-9_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file name contains 3582-9 rather than 3582-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">3644-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3644-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3652-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3652-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3688-2</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3688-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3697-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3697-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3713-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3713-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3715-2</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_3715-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3723-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3723-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3728-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3728-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3732-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3732-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3741-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_3741-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3816-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3816-1_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3825-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180228_3825-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">3822-1</t>
   </si>
   <si>
-    <t xml:space="preserve">3825-1</t>
+    <t xml:space="preserve">20180228_3822-1_SG5253</t>
   </si>
   <si>
     <t xml:space="preserve">3837-2</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_3837-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4047-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_4047-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4056-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180228_4056-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4089-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_4089-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4101-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_4101-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4136-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_4136-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4144-2</t>
   </si>
   <si>
+    <t xml:space="preserve">20180323_BOT_4144-2_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4172-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_BOT_4172-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4176-3</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_BOT_4176-3_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4237-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_BOT4237-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4249-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_BOT4249-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4261-1</t>
   </si>
   <si>
+    <t xml:space="preserve">20180301_BOT_4261-1_SG5253</t>
+  </si>
+  <si>
     <t xml:space="preserve">4295-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20180301_BOT_4295-5_SG5253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">study_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tumor_percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
   </si>
 </sst>
 </file>
@@ -225,6 +404,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -246,14 +426,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,8 +490,28 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -331,10 +538,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I1:I47 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -351,12 +558,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="1" sqref="I1:I47 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,7 +571,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="38.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,936 +596,2759 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>22</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F47"/>
+  <autoFilter ref="A1:I47"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I1:I47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>20180228</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>20180323</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>20180301</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>